--- a/슬더슬 작업리스트업.xlsx
+++ b/슬더슬 작업리스트업.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>구글시트로 변경후 모든데이터 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드정보추가및 추가에따른 데이터형식 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1015,9 @@
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
